--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,19 +22,19 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -505,85 +505,85 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -591,49 +591,49 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
         <v>8</v>
@@ -642,16 +642,16 @@
         <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
@@ -663,16 +663,16 @@
         <v>8</v>
       </c>
       <c r="Z3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -680,22 +680,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -707,19 +707,19 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
         <v>3</v>
@@ -731,19 +731,19 @@
         <v>8</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X4" t="s">
         <v>8</v>
@@ -752,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="Z4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
@@ -769,34 +769,34 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -805,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>8</v>
@@ -820,19 +820,19 @@
         <v>8</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
         <v>8</v>
@@ -841,13 +841,13 @@
         <v>8</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
         <v>6</v>
@@ -858,88 +858,88 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -947,22 +947,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -971,64 +971,64 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
         <v>4</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,40 +1039,40 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
         <v>6</v>
@@ -1081,43 +1081,43 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1125,22 +1125,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
@@ -1158,55 +1158,55 @@
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z9" t="s">
         <v>6</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1214,49 +1214,49 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="s">
         <v>8</v>
@@ -1265,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="S10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="s">
         <v>8</v>
@@ -1286,16 +1286,16 @@
         <v>8</v>
       </c>
       <c r="Z10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="s">
         <v>5</v>
       </c>
       <c r="AC10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="17">
   <si>
     <t>Staff</t>
   </si>
@@ -22,22 +22,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>Staff_2</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>PH</t>
@@ -505,85 +508,85 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -591,64 +594,64 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
@@ -657,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="X3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="s">
         <v>3</v>
@@ -677,147 +680,147 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="s">
         <v>6</v>
       </c>
       <c r="AA4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
@@ -826,117 +829,117 @@
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W5" t="s">
         <v>6</v>
       </c>
       <c r="X5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
         <v>2</v>
@@ -944,67 +947,67 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s">
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
@@ -1013,265 +1016,265 @@
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
         <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9" t="s">
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="s">
         <v>6</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="s">
         <v>6</v>
       </c>
       <c r="AC9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="s">
         <v>6</v>
@@ -1280,22 +1283,22 @@
         <v>6</v>
       </c>
       <c r="X10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,19 +22,19 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -511,82 +511,82 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,28 +594,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -624,19 +624,19 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -669,13 +669,13 @@
         <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
         <v>5</v>
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
         <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,40 +950,40 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>6</v>
@@ -992,46 +992,46 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,16 +1039,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1060,67 +1060,67 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
         <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,70 +1128,70 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
         <v>8</v>
@@ -1200,16 +1200,16 @@
         <v>3</v>
       </c>
       <c r="Z9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
         <v>6</v>
       </c>
       <c r="AC9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,37 +1217,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
@@ -1256,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
         <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="s">
         <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,25 +22,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Staff_2</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
-    <t>DO</t>
+    <t>M2</t>
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>PH</t>
@@ -508,70 +508,70 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
         <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
         <v>2</v>
@@ -580,60 +580,60 @@
         <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
         <v>6</v>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -686,22 +686,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -713,19 +713,19 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="s">
         <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -758,13 +758,13 @@
         <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,37 +772,37 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
@@ -811,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
         <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="s">
         <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7" t="s">
         <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="s">
         <v>6</v>
       </c>
       <c r="AB7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1042,10 +1042,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1054,73 +1054,73 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
         <v>3</v>
       </c>
       <c r="Z9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,49 +1217,49 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,22 +22,22 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>M3</t>
@@ -508,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -532,16 +532,16 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -559,28 +559,28 @@
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
         <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -597,34 +597,34 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
         <v>6</v>
@@ -692,34 +692,34 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -734,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -793,13 +793,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -826,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>4</v>
@@ -844,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="s">
         <v>2</v>
@@ -864,31 +864,31 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
@@ -906,19 +906,19 @@
         <v>7</v>
       </c>
       <c r="Q6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V6" t="s">
         <v>4</v>
@@ -927,19 +927,19 @@
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="s">
         <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="s">
         <v>4</v>
@@ -950,43 +950,43 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
@@ -995,40 +995,40 @@
         <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="s">
         <v>6</v>
       </c>
       <c r="Z7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="s">
         <v>6</v>
       </c>
       <c r="AB7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="s">
         <v>4</v>
@@ -1039,28 +1039,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
         <v>8</v>
@@ -1102,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="s">
         <v>7</v>
@@ -1128,22 +1128,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1152,37 +1152,37 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
         <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9" t="s">
         <v>7</v>
@@ -1191,22 +1191,22 @@
         <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="s">
         <v>6</v>
       </c>
       <c r="AB9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
         <v>4</v>
@@ -1217,22 +1217,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -1241,25 +1241,25 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
         <v>7</v>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC10" t="s">
         <v>4</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,22 +22,22 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M3</t>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
@@ -553,16 +553,16 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
@@ -574,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -600,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -615,22 +615,22 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
@@ -683,22 +683,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -740,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="s">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="s">
         <v>4</v>
@@ -772,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -793,28 +793,28 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
         <v>4</v>
@@ -861,19 +861,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -882,43 +882,43 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
         <v>8</v>
       </c>
       <c r="U6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V6" t="s">
         <v>4</v>
@@ -927,19 +927,19 @@
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
       </c>
       <c r="Z6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="s">
         <v>4</v>
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -965,49 +965,49 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
         <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
@@ -1016,19 +1016,19 @@
         <v>7</v>
       </c>
       <c r="X7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="s">
         <v>7</v>
       </c>
       <c r="AA7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="s">
         <v>4</v>
@@ -1039,40 +1039,40 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -1081,19 +1081,19 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
         <v>6</v>
@@ -1102,22 +1102,22 @@
         <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="s">
         <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
         <v>4</v>
@@ -1131,82 +1131,82 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9" t="s">
         <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="s">
         <v>4</v>
@@ -1217,40 +1217,40 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
         <v>7</v>
@@ -1268,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10" t="s">
         <v>4</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="s">
         <v>4</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,19 +22,19 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>DO</t>
+    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -526,43 +526,43 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
@@ -574,90 +574,90 @@
         <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -686,46 +686,46 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,16 +734,16 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
         <v>3</v>
@@ -755,16 +755,16 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -775,43 +775,43 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
         <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,55 +861,55 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
         <v>8</v>
@@ -921,28 +921,28 @@
         <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -953,73 +953,73 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
       </c>
       <c r="V7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="s">
         <v>7</v>
@@ -1028,10 +1028,10 @@
         <v>8</v>
       </c>
       <c r="AB7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,88 +1039,88 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
         <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
         <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,49 +1217,49 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -25,22 +25,22 @@
     <t>DO</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>Staff_2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>PH</t>
@@ -511,37 +511,37 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -550,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
         <v>4</v>
@@ -565,39 +565,39 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
         <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
         <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -606,55 +606,55 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
         <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W3" t="s">
         <v>2</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,31 +683,31 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -716,16 +716,16 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,16 +734,16 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
         <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -784,22 +784,22 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -808,13 +808,13 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -829,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="AB5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="s">
         <v>2</v>
@@ -861,28 +861,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
@@ -894,28 +894,28 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
@@ -924,19 +924,19 @@
         <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="s">
         <v>7</v>
@@ -950,85 +950,85 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="s">
         <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T7" t="s">
         <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" t="s">
         <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="s">
         <v>2</v>
@@ -1039,85 +1039,85 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" t="s">
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
         <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="s">
         <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
         <v>2</v>
@@ -1128,85 +1128,85 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="s">
         <v>2</v>
@@ -1217,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -1238,28 +1238,28 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="s">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
         <v>8</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="s">
         <v>4</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,25 +22,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>PH</t>
@@ -511,153 +511,153 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
         <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="s">
         <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
         <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,16 +755,16 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="s">
         <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="s">
         <v>6</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,88 +1039,88 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
         <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="s">
         <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,49 +1217,49 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,22 +22,22 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
-    <t>DO</t>
+    <t>Staff_2</t>
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>M2</t>
@@ -511,153 +511,153 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
       </c>
       <c r="AC3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -758,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X6" t="s">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,82 +950,82 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="s">
         <v>5</v>
@@ -1039,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1048,58 +1048,58 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W8" t="s">
         <v>5</v>
@@ -1108,19 +1108,19 @@
         <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9" t="s">
         <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="s">
         <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,28 +1217,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
@@ -1247,19 +1247,19 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -25,22 +25,22 @@
     <t>DO</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>PH</t>
@@ -511,76 +511,76 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
         <v>4</v>
@@ -594,49 +594,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="s">
         <v>7</v>
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s">
         <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -775,43 +775,43 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="s">
         <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="s">
         <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -965,34 +965,34 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="s">
         <v>7</v>
@@ -1001,37 +1001,37 @@
         <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
         <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7" t="s">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="s">
         <v>7</v>
       </c>
       <c r="AB7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,85 +1039,85 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
         <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="s">
         <v>2</v>
@@ -1128,85 +1128,85 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
         <v>2</v>
@@ -1217,22 +1217,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -1241,25 +1241,25 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="s">
         <v>2</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -28,10 +28,10 @@
     <t>A1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -526,64 +526,64 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
         <v>3</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
         <v>3</v>
@@ -594,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -615,28 +615,28 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -648,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3" t="s">
         <v>2</v>
@@ -666,13 +666,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
         <v>8</v>
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -692,40 +692,40 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
         <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -761,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,46 +772,46 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,31 +861,31 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -894,52 +894,52 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6" t="s">
         <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="s">
         <v>2</v>
@@ -953,37 +953,37 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>8</v>
@@ -995,16 +995,16 @@
         <v>8</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
@@ -1013,22 +1013,22 @@
         <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="s">
         <v>2</v>
@@ -1039,22 +1039,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -1066,58 +1066,58 @@
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
         <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
         <v>2</v>
@@ -1128,85 +1128,85 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s">
         <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="s">
         <v>3</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
         <v>2</v>
@@ -1217,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1238,22 +1238,22 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
         <v>2</v>
@@ -1271,16 +1271,16 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="s">
         <v>2</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,19 +22,19 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>Staff_2</t>
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>M2</t>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
@@ -553,90 +553,90 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
         <v>3</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -743,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -761,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="s">
         <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -953,85 +953,85 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
       </c>
       <c r="Q7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7" t="s">
         <v>8</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="s">
         <v>8</v>
       </c>
       <c r="AB7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,28 +1039,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -1069,58 +1069,58 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,49 +1217,49 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T10" t="s">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,25 +22,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>PH</t>
@@ -514,19 +514,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -538,105 +538,105 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
         <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V3" t="s">
         <v>4</v>
@@ -666,13 +666,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="s">
         <v>4</v>
@@ -686,16 +686,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -737,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
         <v>4</v>
@@ -755,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="s">
         <v>4</v>
@@ -775,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -793,16 +793,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
         <v>2</v>
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
         <v>4</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
         <v>2</v>
@@ -861,40 +861,40 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
         <v>8</v>
@@ -903,43 +903,43 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
         <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="s">
         <v>4</v>
@@ -950,85 +950,85 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
         <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="s">
         <v>4</v>
@@ -1039,28 +1039,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -1069,31 +1069,31 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
@@ -1102,22 +1102,22 @@
         <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" t="s">
         <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="s">
         <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
         <v>4</v>
@@ -1128,22 +1128,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1152,58 +1152,58 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9" t="s">
         <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="s">
         <v>2</v>
@@ -1217,40 +1217,40 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U10" t="s">
         <v>8</v>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="W10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="s">
         <v>4</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -25,22 +25,22 @@
     <t>A1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>M1</t>
+    <t>Staff_2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>PH</t>
@@ -511,129 +511,129 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
       </c>
       <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
       <c r="U2" t="s">
         <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
         <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
         <v>2</v>
@@ -642,40 +642,40 @@
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
       </c>
       <c r="Y3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -695,37 +695,37 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -758,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,16 +823,16 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
         <v>2</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,85 +861,85 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
         <v>4</v>
@@ -953,85 +953,85 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>4</v>
-      </c>
       <c r="AA7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1048,79 +1048,79 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
         <v>3</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
         <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,73 +1217,73 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R10" t="s">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="s">
         <v>9</v>
@@ -1292,13 +1292,13 @@
         <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,16 +22,16 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>DO</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -517,64 +517,64 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
         <v>5</v>
@@ -583,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="AB2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -597,34 +597,34 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>7</v>
@@ -636,22 +636,22 @@
         <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
@@ -663,13 +663,13 @@
         <v>9</v>
       </c>
       <c r="Y3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="s">
         <v>7</v>
@@ -683,34 +683,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -737,16 +737,16 @@
         <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
         <v>2</v>
@@ -775,76 +775,76 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="s">
         <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="s">
         <v>8</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="AC5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U6" t="s">
         <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s">
         <v>3</v>
       </c>
-      <c r="U7" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>4</v>
-      </c>
       <c r="AC7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1048,46 +1048,46 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -1099,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X8" t="s">
         <v>7</v>
@@ -1111,16 +1111,16 @@
         <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
         <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U9" t="s">
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1226,43 +1226,43 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P10" t="s">
         <v>4</v>
       </c>
       <c r="Q10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
         <v>9</v>
@@ -1274,31 +1274,31 @@
         <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="s">
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
         <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,31 +22,31 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>Staff_3</t>
   </si>
   <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>Staff_3</t>
   </si>
   <si>
     <t>Staff_4</t>
@@ -508,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -526,67 +526,67 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -597,73 +597,73 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="s">
         <v>7</v>
@@ -672,96 +672,96 @@
         <v>5</v>
       </c>
       <c r="AB3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
         <v>4</v>
       </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" t="s">
-        <v>5</v>
-      </c>
       <c r="X4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="s">
         <v>2</v>
@@ -772,88 +772,88 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="s">
         <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,88 +861,88 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="s">
         <v>7</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>3</v>
       </c>
       <c r="V7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,22 +1039,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1066,19 +1066,19 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8" t="s">
         <v>7</v>
@@ -1087,37 +1087,37 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -1128,22 +1128,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -1152,61 +1152,61 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V9" t="s">
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
         <v>5</v>
@@ -1220,37 +1220,37 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
         <v>7</v>
@@ -1259,22 +1259,22 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10" t="s">
         <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
         <v>5</v>
@@ -1283,19 +1283,19 @@
         <v>2</v>
       </c>
       <c r="X10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC10" t="s">
         <v>5</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,31 +22,31 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>PH</t>
   </si>
   <si>
     <t>Staff_3</t>
-  </si>
-  <si>
-    <t>PH</t>
   </si>
   <si>
     <t>Staff_4</t>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -517,13 +517,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -535,13 +535,13 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -553,40 +553,40 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
       <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,177 +594,177 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
         <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
-      </c>
       <c r="T4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W4" t="s">
         <v>4</v>
       </c>
       <c r="X4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="s">
         <v>2</v>
       </c>
       <c r="AC4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,88 +772,88 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T5" t="s">
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="s">
         <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -864,85 +864,85 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,43 +950,43 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
         <v>3</v>
@@ -1007,31 +1007,31 @@
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="s">
         <v>4</v>
       </c>
       <c r="Z7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,43 +1039,43 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
         <v>7</v>
@@ -1084,43 +1084,43 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,88 +1128,88 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
         <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,55 +1217,55 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S10" t="s">
         <v>8</v>
@@ -1274,28 +1274,28 @@
         <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
         <v>5</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,16 +22,16 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -517,76 +517,76 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -606,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -621,22 +621,22 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="s">
         <v>8</v>
@@ -683,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
@@ -734,13 +734,13 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
         <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
@@ -755,16 +755,16 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
         <v>2</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -790,31 +790,31 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,16 +823,16 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W5" t="s">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -864,28 +864,28 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -894,13 +894,13 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>8</v>
@@ -909,40 +909,40 @@
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="s">
         <v>7</v>
       </c>
       <c r="Y6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -953,19 +953,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -974,64 +974,64 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4</v>
-      </c>
       <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" t="s">
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
         <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1042,37 +1042,37 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -1087,40 +1087,40 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1134,34 +1134,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
@@ -1170,46 +1170,46 @@
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="s">
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="s">
         <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="s">
         <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,46 +1217,46 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
         <v>7</v>
@@ -1277,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W10" t="s">
         <v>8</v>
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="s">
         <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,25 +22,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>PH</t>
@@ -508,85 +508,85 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
         <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,49 +594,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
         <v>7</v>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,13 +666,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="s">
         <v>7</v>
@@ -683,85 +683,85 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
         <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>2</v>
       </c>
       <c r="AC4" t="s">
         <v>2</v>
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
         <v>7</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
         <v>7</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -873,76 +873,76 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4</v>
-      </c>
       <c r="W7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="s">
         <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1042,22 +1042,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -1066,46 +1066,46 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="s">
         <v>2</v>
@@ -1114,13 +1114,13 @@
         <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1131,43 +1131,43 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P9" t="s">
         <v>7</v>
@@ -1176,37 +1176,37 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X9" t="s">
         <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="s">
         <v>4</v>
@@ -1217,25 +1217,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -1250,16 +1250,16 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1277,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W10" t="s">
         <v>8</v>
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
         <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,13 +22,13 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>A1</t>
   </si>
   <si>
     <t>DO</t>
@@ -508,85 +508,85 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -597,43 +597,43 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
         <v>5</v>
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -683,70 +683,70 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
       <c r="V4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="s">
         <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="s">
         <v>2</v>
@@ -775,43 +775,43 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
         <v>7</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V5" t="s">
         <v>7</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="s">
         <v>7</v>
       </c>
       <c r="AC5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -861,76 +861,76 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -939,10 +939,10 @@
         <v>8</v>
       </c>
       <c r="AB6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,85 +950,85 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="s">
         <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>2</v>
       </c>
       <c r="AC7" t="s">
         <v>5</v>
@@ -1042,61 +1042,61 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s">
         <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V8" t="s">
         <v>8</v>
@@ -1108,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
         <v>8</v>
@@ -1128,79 +1128,79 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
         <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="s">
         <v>5</v>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="AC9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,22 +1217,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -1244,22 +1244,22 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="s">
         <v>5</v>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,16 +22,16 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>DO</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -514,79 +514,79 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
         <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,49 +594,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
@@ -683,85 +683,85 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2</v>
-      </c>
       <c r="T4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="s">
         <v>4</v>
       </c>
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2</v>
-      </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC4" t="s">
         <v>2</v>
@@ -781,40 +781,40 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
         <v>7</v>
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
         <v>7</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -867,82 +867,82 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W6" t="s">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
         <v>4</v>
-      </c>
-      <c r="V7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1057,70 +1057,70 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X8" t="s">
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1134,28 +1134,28 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
@@ -1164,49 +1164,49 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W9" t="s">
         <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="s">
         <v>3</v>
       </c>
       <c r="AA9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="s">
         <v>7</v>
@@ -1217,34 +1217,34 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
         <v>2</v>
@@ -1253,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="s">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" t="s">
         <v>9</v>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="AC10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,12 +22,12 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -37,10 +37,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>PH</t>
@@ -508,22 +508,22 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -541,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
@@ -553,13 +553,13 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>4</v>
@@ -568,25 +568,25 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
         <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,49 +594,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
@@ -686,43 +686,43 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
         <v>2</v>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="T4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" t="s">
-        <v>3</v>
-      </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="s">
         <v>9</v>
@@ -755,16 +755,16 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
         <v>4</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -823,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" t="s">
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="s">
         <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="s">
         <v>7</v>
@@ -861,19 +861,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -882,49 +882,49 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
@@ -933,16 +933,16 @@
         <v>7</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -950,88 +950,88 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>5</v>
-      </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,88 +1039,88 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="s">
         <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1128,52 +1128,52 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
@@ -1185,31 +1185,31 @@
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,34 +1217,34 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
         <v>2</v>
@@ -1253,10 +1253,10 @@
         <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
@@ -1277,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10" t="s">
         <v>7</v>
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/output/output.xlsx
+++ b/alns/src/output/output.xlsx
@@ -22,6 +22,9 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
@@ -31,16 +34,13 @@
     <t>M3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>PH</t>
@@ -508,16 +508,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -526,67 +526,67 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
         <v>5</v>
       </c>
       <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y2" t="s">
         <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -594,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -606,37 +606,37 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
         <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -648,16 +648,16 @@
         <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U3" t="s">
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" t="s">
         <v>9</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="s">
         <v>7</v>
@@ -683,88 +683,88 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>3</v>
-      </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -772,49 +772,49 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="s">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
@@ -832,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
         <v>9</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="s">
         <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="s">
         <v>7</v>
@@ -861,85 +861,85 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" t="s">
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V6" t="s">
         <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
         <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
         <v>8</v>
@@ -950,76 +950,76 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="s">
         <v>4</v>
@@ -1028,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1039,25 +1039,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -1069,58 +1069,58 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1131,85 +1131,85 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9" t="s">
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1217,46 +1217,46 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
@@ -1268,16 +1268,16 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10" t="s">
         <v>7</v>
@@ -1289,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
         <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
